--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DBC4B-CD94-6846-91EE-E17985FEF56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D6F158-FCD5-5B4E-9D24-256D38A0D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="9180" windowWidth="28760" windowHeight="16060" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="8580" yWindow="8720" windowWidth="28760" windowHeight="16060" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Video</t>
   </si>
   <si>
-    <t>Linear Regression Part 2</t>
-  </si>
-  <si>
     <t>Chapter 9 - Multiple Regression</t>
   </si>
   <si>
@@ -223,7 +220,13 @@
     <t>Thanksgiving</t>
   </si>
   <si>
-    <t>Spring Break</t>
+    <t>Presidents Day - No Meetup - Midterm</t>
+  </si>
+  <si>
+    <t>Spring Break - No Meetup</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +631,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
@@ -796,17 +799,8 @@
         <f t="shared" si="0"/>
         <v>46097</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -822,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -840,8 +834,11 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -867,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -984,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1160,7 +1157,7 @@
         <v>45970</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1179,7 +1176,7 @@
         <v>45977</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,7 +1205,7 @@
         <v>45991</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2026 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D6F158-FCD5-5B4E-9D24-256D38A0D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA863A6A-5D1D-7748-B1C2-68D5FBD6DBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="8720" windowWidth="28760" windowHeight="16060" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="8580" yWindow="8720" windowWidth="28760" windowHeight="16060" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -217,9 +217,6 @@
     <t>NumDays</t>
   </si>
   <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
     <t>Presidents Day - No Meetup - Midterm</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Miedterm</t>
+  </si>
+  <si>
+    <t>Intro to Course</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +803,7 @@
         <v>46097</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -848,7 +851,7 @@
         <v>46118</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -864,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -963,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,17 +998,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45894</v>
+        <v>46048</v>
       </c>
       <c r="B2" s="9">
         <v>7</v>
       </c>
       <c r="C2" s="2">
         <f>A2+B2-1</f>
-        <v>45900</v>
+        <v>46054</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1014,17 +1017,17 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>C2+1</f>
-        <v>45901</v>
+        <v>46055</v>
       </c>
       <c r="B3" s="9">
         <v>14</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C15" si="0">A3+B3-1</f>
-        <v>45914</v>
+        <v>46068</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1033,17 +1036,17 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A15" si="1">C3+1</f>
-        <v>45915</v>
+        <v>46069</v>
       </c>
       <c r="B4" s="9">
         <v>7</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>45921</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1052,17 +1055,17 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>45922</v>
+        <v>46076</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>45928</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -1071,17 +1074,17 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>45929</v>
+        <v>46083</v>
       </c>
       <c r="B6" s="9">
         <v>7</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>45935</v>
+        <v>46089</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1090,17 +1093,17 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>45936</v>
+        <v>46090</v>
       </c>
       <c r="B7" s="9">
         <v>7</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>45942</v>
+        <v>46096</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1109,17 +1112,17 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>45943</v>
+        <v>46097</v>
       </c>
       <c r="B8" s="9">
         <v>7</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>45949</v>
+        <v>46103</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1128,17 +1131,17 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>45950</v>
+        <v>46104</v>
       </c>
       <c r="B9" s="9">
         <v>14</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>45963</v>
+        <v>46117</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1147,17 +1150,17 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>45964</v>
+        <v>46118</v>
       </c>
       <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>45970</v>
+        <v>46124</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1166,46 +1169,49 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>45971</v>
+        <v>46125</v>
       </c>
       <c r="B11" s="9">
         <v>7</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>45977</v>
+        <v>46131</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>45978</v>
+        <v>46132</v>
       </c>
       <c r="B12" s="9">
         <v>7</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>45984</v>
+        <v>46138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>45985</v>
+        <v>46139</v>
       </c>
       <c r="B13" s="9">
         <v>7</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>45991</v>
+        <v>46145</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1214,14 +1220,14 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>46146</v>
       </c>
       <c r="B14" s="9">
         <v>7</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>45998</v>
+        <v>46152</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1233,14 +1239,14 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
-        <v>45999</v>
+        <v>46153</v>
       </c>
       <c r="B15" s="9">
         <v>7</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>46005</v>
+        <v>46159</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
